--- a/data/georgia_census/imereti/chiatura/education_graduates.xlsx
+++ b/data/georgia_census/imereti/chiatura/education_graduates.xlsx
@@ -1853,13 +1853,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F703870C-4768-43B3-9472-12A14740CF7F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4373934C-E1A7-4BA9-ADCD-A6C297DA8E03}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{020FB765-DD86-471A-A7CA-47C2517FC9DC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A86877A5-857A-424E-A8BA-3BDDE89A5878}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CABA3029-5C63-4545-AE32-FC75A9F4CD0B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{219A6D77-CD84-46A4-8154-4E02461BBBFE}"/>
 </file>